--- a/data/unchecked/manual_collect/china/sichuan/sichuanCaseStatistics_20200331.xlsx
+++ b/data/unchecked/manual_collect/china/sichuan/sichuanCaseStatistics_20200331.xlsx
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9444" uniqueCount="3302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9450" uniqueCount="3308">
   <si>
     <t>序号</t>
   </si>
@@ -10316,6 +10316,24 @@
   </si>
   <si>
     <t>http://www.sc.gov.cn/10462/10778/10876/2020/4/1/7ab661fd5c0f4b3dbe42c00d5fefe7cb.shtml</t>
+  </si>
+  <si>
+    <t>新增无症状感染人数</t>
+  </si>
+  <si>
+    <t>新增无症状感染治愈人数</t>
+  </si>
+  <si>
+    <t>新增无症状感染死亡人数</t>
+  </si>
+  <si>
+    <t>累计无症状感染人数</t>
+  </si>
+  <si>
+    <t>累计无症状感染治愈人数</t>
+  </si>
+  <si>
+    <t>累计无症状感染死亡人数</t>
   </si>
 </sst>
 </file>
@@ -10326,7 +10344,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10397,6 +10415,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -10433,7 +10459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10479,6 +10505,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10755,10 +10784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AT31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10774,37 +10803,41 @@
     <col min="9" max="9" width="7.5" style="12" customWidth="1"/>
     <col min="10" max="10" width="6.125" style="12" customWidth="1"/>
     <col min="11" max="11" width="8.25" style="12" customWidth="1"/>
-    <col min="12" max="12" width="5.75" style="12" customWidth="1"/>
-    <col min="13" max="13" width="5.875" style="12" customWidth="1"/>
-    <col min="14" max="15" width="6.5" style="12" customWidth="1"/>
-    <col min="16" max="16" width="6.25" style="12" customWidth="1"/>
-    <col min="17" max="17" width="7" style="12" customWidth="1"/>
-    <col min="18" max="18" width="4" style="12" customWidth="1"/>
-    <col min="19" max="19" width="7" style="12" customWidth="1"/>
-    <col min="20" max="20" width="17" style="13" customWidth="1"/>
-    <col min="21" max="21" width="5.125" style="12" customWidth="1"/>
-    <col min="22" max="22" width="10.625" style="12" customWidth="1"/>
-    <col min="23" max="23" width="5.375" style="12" customWidth="1"/>
-    <col min="24" max="24" width="3.75" style="12" customWidth="1"/>
-    <col min="25" max="25" width="3.375" style="12" customWidth="1"/>
-    <col min="26" max="26" width="18.375" style="12" customWidth="1"/>
-    <col min="27" max="27" width="5.5" style="12" customWidth="1"/>
-    <col min="28" max="28" width="7.5" style="12" customWidth="1"/>
-    <col min="29" max="29" width="6.125" style="12" customWidth="1"/>
-    <col min="30" max="30" width="16.375" style="12" customWidth="1"/>
-    <col min="31" max="31" width="4.625" style="12" customWidth="1"/>
-    <col min="32" max="32" width="7.625" style="12" customWidth="1"/>
-    <col min="33" max="33" width="8.75" style="12" customWidth="1"/>
-    <col min="34" max="34" width="8.875" style="12" customWidth="1"/>
-    <col min="35" max="36" width="31.875" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.875" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.5" style="12" customWidth="1"/>
-    <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="5.125" style="12" customWidth="1"/>
-    <col min="41" max="16384" width="10.875" style="12"/>
+    <col min="12" max="12" width="9.75" style="12" customWidth="1"/>
+    <col min="13" max="13" width="3.875" style="12" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="5.75" style="12" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.875" style="12" customWidth="1"/>
+    <col min="17" max="18" width="6.5" style="12" customWidth="1"/>
+    <col min="19" max="19" width="6.25" style="12" customWidth="1"/>
+    <col min="20" max="20" width="5.125" style="12" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="6.25" style="12" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="7" style="12" customWidth="1"/>
+    <col min="24" max="24" width="4" style="12" customWidth="1"/>
+    <col min="25" max="25" width="7" style="12" customWidth="1"/>
+    <col min="26" max="26" width="17" style="13" customWidth="1"/>
+    <col min="27" max="27" width="5.125" style="12" customWidth="1"/>
+    <col min="28" max="28" width="10.625" style="12" customWidth="1"/>
+    <col min="29" max="29" width="5.375" style="12" customWidth="1"/>
+    <col min="30" max="30" width="3.75" style="12" customWidth="1"/>
+    <col min="31" max="31" width="3.375" style="12" customWidth="1"/>
+    <col min="32" max="32" width="18.375" style="12" customWidth="1"/>
+    <col min="33" max="33" width="5.5" style="12" customWidth="1"/>
+    <col min="34" max="34" width="7.5" style="12" customWidth="1"/>
+    <col min="35" max="35" width="6.125" style="12" customWidth="1"/>
+    <col min="36" max="36" width="16.375" style="12" customWidth="1"/>
+    <col min="37" max="37" width="4.625" style="12" customWidth="1"/>
+    <col min="38" max="38" width="7.625" style="12" customWidth="1"/>
+    <col min="39" max="39" width="8.75" style="12" customWidth="1"/>
+    <col min="40" max="40" width="8.875" style="12" customWidth="1"/>
+    <col min="41" max="42" width="31.875" style="12" customWidth="1"/>
+    <col min="43" max="43" width="21.875" style="12" customWidth="1"/>
+    <col min="44" max="44" width="24.5" style="12" customWidth="1"/>
+    <col min="45" max="45" width="31" style="12" customWidth="1"/>
+    <col min="46" max="46" width="5.125" style="12" customWidth="1"/>
+    <col min="47" max="16384" width="10.875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1" ht="15">
+    <row r="1" spans="1:46" s="11" customFormat="1" ht="15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -10841,92 +10874,110 @@
       <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="19" t="s">
+        <v>3302</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>3303</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>3304</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="T1" s="19" t="s">
+        <v>3305</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>3306</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>3307</v>
+      </c>
+      <c r="W1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AL1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AP1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AR1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AS1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AT1" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:46">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -10951,41 +11002,41 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
-      <c r="M2" s="16">
+      <c r="P2" s="16">
         <v>144</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16">
         <v>141</v>
       </c>
-      <c r="P2" s="12">
+      <c r="S2" s="12">
         <v>3</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="12" t="s">
+      <c r="X2" s="16"/>
+      <c r="Y2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="13">
+      <c r="Z2" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="AB2" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W2" s="13"/>
-      <c r="Z2" s="13">
+      <c r="AC2" s="13"/>
+      <c r="AF2" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AG2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AH2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD2" s="13"/>
-      <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
-    </row>
-    <row r="3" spans="1:40">
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+    </row>
+    <row r="3" spans="1:46">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -11007,35 +11058,35 @@
       <c r="G3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="12">
+      <c r="P3" s="12">
         <v>9</v>
       </c>
-      <c r="O3" s="12">
+      <c r="R3" s="12">
         <v>9</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="13">
+      <c r="Z3" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="AB3" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W3" s="13"/>
-      <c r="Z3" s="13">
+      <c r="AC3" s="13"/>
+      <c r="AF3" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AG3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AH3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD3" s="13"/>
-      <c r="AI3" s="13"/>
-    </row>
-    <row r="4" spans="1:40">
+      <c r="AJ3" s="13"/>
+      <c r="AO3" s="13"/>
+    </row>
+    <row r="4" spans="1:46">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -11057,35 +11108,35 @@
       <c r="G4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="12">
+      <c r="P4" s="12">
         <v>16</v>
       </c>
-      <c r="O4" s="12">
+      <c r="R4" s="12">
         <v>16</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="Y4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="13">
+      <c r="Z4" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="AB4" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W4" s="13"/>
-      <c r="Z4" s="13">
+      <c r="AC4" s="13"/>
+      <c r="AF4" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AG4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AH4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD4" s="13"/>
-      <c r="AI4" s="13"/>
-    </row>
-    <row r="5" spans="1:40">
+      <c r="AJ4" s="13"/>
+      <c r="AO4" s="13"/>
+    </row>
+    <row r="5" spans="1:46">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -11107,35 +11158,35 @@
       <c r="G5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="12">
+      <c r="P5" s="12">
         <v>24</v>
       </c>
-      <c r="O5" s="12">
+      <c r="R5" s="12">
         <v>24</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="Y5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="13">
+      <c r="Z5" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="AB5" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W5" s="13"/>
-      <c r="Z5" s="13">
+      <c r="AC5" s="13"/>
+      <c r="AF5" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AG5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" s="12" t="s">
+      <c r="AH5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD5" s="13"/>
-      <c r="AI5" s="13"/>
-    </row>
-    <row r="6" spans="1:40">
+      <c r="AJ5" s="13"/>
+      <c r="AO5" s="13"/>
+    </row>
+    <row r="6" spans="1:46">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -11157,35 +11208,35 @@
       <c r="G6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="12">
+      <c r="P6" s="12">
         <v>18</v>
       </c>
-      <c r="O6" s="12">
+      <c r="R6" s="12">
         <v>18</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="Y6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T6" s="13">
+      <c r="Z6" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V6" s="18" t="s">
+      <c r="AB6" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W6" s="13"/>
-      <c r="Z6" s="13">
+      <c r="AC6" s="13"/>
+      <c r="AF6" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA6" s="12" t="s">
+      <c r="AG6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB6" s="12" t="s">
+      <c r="AH6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD6" s="13"/>
-      <c r="AI6" s="13"/>
-    </row>
-    <row r="7" spans="1:40">
+      <c r="AJ6" s="13"/>
+      <c r="AO6" s="13"/>
+    </row>
+    <row r="7" spans="1:46">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -11207,35 +11258,35 @@
       <c r="G7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="12">
+      <c r="P7" s="12">
         <v>22</v>
       </c>
-      <c r="O7" s="12">
+      <c r="R7" s="12">
         <v>22</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="Y7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T7" s="13">
+      <c r="Z7" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V7" s="18" t="s">
+      <c r="AB7" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W7" s="13"/>
-      <c r="Z7" s="13">
+      <c r="AC7" s="13"/>
+      <c r="AF7" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA7" s="12" t="s">
+      <c r="AG7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB7" s="12" t="s">
+      <c r="AH7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD7" s="13"/>
-      <c r="AI7" s="13"/>
-    </row>
-    <row r="8" spans="1:40">
+      <c r="AJ7" s="13"/>
+      <c r="AO7" s="13"/>
+    </row>
+    <row r="8" spans="1:46">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -11257,35 +11308,35 @@
       <c r="G8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="12">
+      <c r="P8" s="12">
         <v>6</v>
       </c>
-      <c r="O8" s="12">
+      <c r="R8" s="12">
         <v>6</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="Y8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T8" s="13">
+      <c r="Z8" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V8" s="18" t="s">
+      <c r="AB8" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W8" s="13"/>
-      <c r="Z8" s="13">
+      <c r="AC8" s="13"/>
+      <c r="AF8" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA8" s="12" t="s">
+      <c r="AG8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB8" s="12" t="s">
+      <c r="AH8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD8" s="13"/>
-      <c r="AI8" s="13"/>
-    </row>
-    <row r="9" spans="1:40">
+      <c r="AJ8" s="13"/>
+      <c r="AO8" s="13"/>
+    </row>
+    <row r="9" spans="1:46">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -11307,35 +11358,35 @@
       <c r="G9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="12">
+      <c r="P9" s="12">
         <v>17</v>
       </c>
-      <c r="O9" s="12">
+      <c r="R9" s="12">
         <v>17</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="Y9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T9" s="13">
+      <c r="Z9" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V9" s="18" t="s">
+      <c r="AB9" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W9" s="13"/>
-      <c r="Z9" s="13">
+      <c r="AC9" s="13"/>
+      <c r="AF9" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA9" s="12" t="s">
+      <c r="AG9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB9" s="12" t="s">
+      <c r="AH9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD9" s="13"/>
-      <c r="AI9" s="13"/>
-    </row>
-    <row r="10" spans="1:40">
+      <c r="AJ9" s="13"/>
+      <c r="AO9" s="13"/>
+    </row>
+    <row r="10" spans="1:46">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -11357,35 +11408,35 @@
       <c r="G10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="12">
+      <c r="P10" s="12">
         <v>22</v>
       </c>
-      <c r="O10" s="12">
+      <c r="R10" s="12">
         <v>22</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="Y10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T10" s="13">
+      <c r="Z10" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V10" s="18" t="s">
+      <c r="AB10" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W10" s="13"/>
-      <c r="Z10" s="13">
+      <c r="AC10" s="13"/>
+      <c r="AF10" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA10" s="12" t="s">
+      <c r="AG10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB10" s="12" t="s">
+      <c r="AH10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD10" s="13"/>
-      <c r="AI10" s="13"/>
-    </row>
-    <row r="11" spans="1:40">
+      <c r="AJ10" s="13"/>
+      <c r="AO10" s="13"/>
+    </row>
+    <row r="11" spans="1:46">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -11407,35 +11458,35 @@
       <c r="G11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="12">
+      <c r="P11" s="12">
         <v>3</v>
       </c>
-      <c r="O11" s="12">
+      <c r="R11" s="12">
         <v>3</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="Y11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T11" s="13">
+      <c r="Z11" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V11" s="18" t="s">
+      <c r="AB11" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W11" s="13"/>
-      <c r="Z11" s="13">
+      <c r="AC11" s="13"/>
+      <c r="AF11" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA11" s="12" t="s">
+      <c r="AG11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB11" s="12" t="s">
+      <c r="AH11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD11" s="13"/>
-      <c r="AI11" s="13"/>
-    </row>
-    <row r="12" spans="1:40">
+      <c r="AJ11" s="13"/>
+      <c r="AO11" s="13"/>
+    </row>
+    <row r="12" spans="1:46">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -11457,35 +11508,35 @@
       <c r="G12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="12">
+      <c r="P12" s="12">
         <v>39</v>
       </c>
-      <c r="O12" s="12">
+      <c r="R12" s="12">
         <v>39</v>
       </c>
-      <c r="S12" s="12" t="s">
+      <c r="Y12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T12" s="13">
+      <c r="Z12" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V12" s="18" t="s">
+      <c r="AB12" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W12" s="13"/>
-      <c r="Z12" s="13">
+      <c r="AC12" s="13"/>
+      <c r="AF12" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA12" s="12" t="s">
+      <c r="AG12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB12" s="12" t="s">
+      <c r="AH12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD12" s="13"/>
-      <c r="AI12" s="13"/>
-    </row>
-    <row r="13" spans="1:40">
+      <c r="AJ12" s="13"/>
+      <c r="AO12" s="13"/>
+    </row>
+    <row r="13" spans="1:46">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -11507,35 +11558,35 @@
       <c r="G13" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="12">
+      <c r="P13" s="12">
         <v>12</v>
       </c>
-      <c r="O13" s="12">
+      <c r="R13" s="12">
         <v>12</v>
       </c>
-      <c r="S13" s="12" t="s">
+      <c r="Y13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T13" s="13">
+      <c r="Z13" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V13" s="18" t="s">
+      <c r="AB13" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W13" s="13"/>
-      <c r="Z13" s="13">
+      <c r="AC13" s="13"/>
+      <c r="AF13" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA13" s="12" t="s">
+      <c r="AG13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB13" s="12" t="s">
+      <c r="AH13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD13" s="13"/>
-      <c r="AI13" s="13"/>
-    </row>
-    <row r="14" spans="1:40">
+      <c r="AJ13" s="13"/>
+      <c r="AO13" s="13"/>
+    </row>
+    <row r="14" spans="1:46">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -11557,35 +11608,35 @@
       <c r="G14" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="12">
+      <c r="P14" s="12">
         <v>30</v>
       </c>
-      <c r="O14" s="12">
+      <c r="R14" s="12">
         <v>30</v>
       </c>
-      <c r="S14" s="12" t="s">
+      <c r="Y14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T14" s="13">
+      <c r="Z14" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V14" s="18" t="s">
+      <c r="AB14" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W14" s="13"/>
-      <c r="Z14" s="13">
+      <c r="AC14" s="13"/>
+      <c r="AF14" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA14" s="12" t="s">
+      <c r="AG14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB14" s="12" t="s">
+      <c r="AH14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD14" s="13"/>
-      <c r="AI14" s="13"/>
-    </row>
-    <row r="15" spans="1:40">
+      <c r="AJ14" s="13"/>
+      <c r="AO14" s="13"/>
+    </row>
+    <row r="15" spans="1:46">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -11607,35 +11658,35 @@
       <c r="G15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="M15" s="12">
+      <c r="P15" s="12">
         <v>42</v>
       </c>
-      <c r="O15" s="12">
+      <c r="R15" s="12">
         <v>42</v>
       </c>
-      <c r="S15" s="12" t="s">
+      <c r="Y15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T15" s="13">
+      <c r="Z15" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V15" s="18" t="s">
+      <c r="AB15" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W15" s="13"/>
-      <c r="Z15" s="13">
+      <c r="AC15" s="13"/>
+      <c r="AF15" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA15" s="12" t="s">
+      <c r="AG15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB15" s="12" t="s">
+      <c r="AH15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD15" s="13"/>
-      <c r="AI15" s="13"/>
-    </row>
-    <row r="16" spans="1:40">
+      <c r="AJ15" s="13"/>
+      <c r="AO15" s="13"/>
+    </row>
+    <row r="16" spans="1:46">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -11657,35 +11708,35 @@
       <c r="G16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="M16" s="12">
+      <c r="P16" s="12">
         <v>24</v>
       </c>
-      <c r="O16" s="12">
+      <c r="R16" s="12">
         <v>24</v>
       </c>
-      <c r="S16" s="12" t="s">
+      <c r="Y16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T16" s="13">
+      <c r="Z16" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V16" s="18" t="s">
+      <c r="AB16" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W16" s="13"/>
-      <c r="Z16" s="13">
+      <c r="AC16" s="13"/>
+      <c r="AF16" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA16" s="12" t="s">
+      <c r="AG16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB16" s="12" t="s">
+      <c r="AH16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD16" s="13"/>
-      <c r="AI16" s="13"/>
-    </row>
-    <row r="17" spans="1:35">
+      <c r="AJ16" s="13"/>
+      <c r="AO16" s="13"/>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -11707,35 +11758,35 @@
       <c r="G17" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M17" s="12">
+      <c r="P17" s="12">
         <v>7</v>
       </c>
-      <c r="O17" s="12">
+      <c r="R17" s="12">
         <v>7</v>
       </c>
-      <c r="S17" s="12" t="s">
+      <c r="Y17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T17" s="13">
+      <c r="Z17" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V17" s="18" t="s">
+      <c r="AB17" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W17" s="13"/>
-      <c r="Z17" s="13">
+      <c r="AC17" s="13"/>
+      <c r="AF17" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA17" s="12" t="s">
+      <c r="AG17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB17" s="12" t="s">
+      <c r="AH17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD17" s="13"/>
-      <c r="AI17" s="13"/>
-    </row>
-    <row r="18" spans="1:35">
+      <c r="AJ17" s="13"/>
+      <c r="AO17" s="13"/>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -11757,35 +11808,35 @@
       <c r="G18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="12">
+      <c r="P18" s="12">
         <v>8</v>
       </c>
-      <c r="O18" s="12">
+      <c r="R18" s="12">
         <v>8</v>
       </c>
-      <c r="S18" s="12" t="s">
+      <c r="Y18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T18" s="13">
+      <c r="Z18" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V18" s="18" t="s">
+      <c r="AB18" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W18" s="13"/>
-      <c r="Z18" s="13">
+      <c r="AC18" s="13"/>
+      <c r="AF18" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA18" s="12" t="s">
+      <c r="AG18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB18" s="12" t="s">
+      <c r="AH18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD18" s="13"/>
-      <c r="AI18" s="13"/>
-    </row>
-    <row r="19" spans="1:35">
+      <c r="AJ18" s="13"/>
+      <c r="AO18" s="13"/>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -11807,35 +11858,35 @@
       <c r="G19" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="M19" s="12">
+      <c r="P19" s="12">
         <v>4</v>
       </c>
-      <c r="O19" s="12">
+      <c r="R19" s="12">
         <v>4</v>
       </c>
-      <c r="S19" s="12" t="s">
+      <c r="Y19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T19" s="13">
+      <c r="Z19" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V19" s="18" t="s">
+      <c r="AB19" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W19" s="13"/>
-      <c r="Z19" s="13">
+      <c r="AC19" s="13"/>
+      <c r="AF19" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA19" s="12" t="s">
+      <c r="AG19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB19" s="12" t="s">
+      <c r="AH19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD19" s="13"/>
-      <c r="AI19" s="13"/>
-    </row>
-    <row r="20" spans="1:35">
+      <c r="AJ19" s="13"/>
+      <c r="AO19" s="13"/>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -11857,35 +11908,35 @@
       <c r="G20" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M20" s="12">
+      <c r="P20" s="12">
         <v>1</v>
       </c>
-      <c r="O20" s="12">
+      <c r="R20" s="12">
         <v>1</v>
       </c>
-      <c r="S20" s="12" t="s">
+      <c r="Y20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T20" s="13">
+      <c r="Z20" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V20" s="18" t="s">
+      <c r="AB20" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W20" s="13"/>
-      <c r="Z20" s="13">
+      <c r="AC20" s="13"/>
+      <c r="AF20" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA20" s="12" t="s">
+      <c r="AG20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB20" s="12" t="s">
+      <c r="AH20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD20" s="13"/>
-      <c r="AI20" s="13"/>
-    </row>
-    <row r="21" spans="1:35">
+      <c r="AJ20" s="13"/>
+      <c r="AO20" s="13"/>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -11907,35 +11958,35 @@
       <c r="G21" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="12">
+      <c r="P21" s="12">
         <v>78</v>
       </c>
-      <c r="O21" s="12">
+      <c r="R21" s="12">
         <v>78</v>
       </c>
-      <c r="S21" s="12" t="s">
+      <c r="Y21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T21" s="13">
+      <c r="Z21" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V21" s="18" t="s">
+      <c r="AB21" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W21" s="13"/>
-      <c r="Z21" s="13">
+      <c r="AC21" s="13"/>
+      <c r="AF21" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA21" s="12" t="s">
+      <c r="AG21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB21" s="12" t="s">
+      <c r="AH21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD21" s="13"/>
-      <c r="AI21" s="13"/>
-    </row>
-    <row r="22" spans="1:35">
+      <c r="AJ21" s="13"/>
+      <c r="AO21" s="13"/>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -11957,35 +12008,35 @@
       <c r="G22" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M22" s="12">
+      <c r="P22" s="12">
         <v>13</v>
       </c>
-      <c r="O22" s="12">
+      <c r="R22" s="12">
         <v>13</v>
       </c>
-      <c r="S22" s="12" t="s">
+      <c r="Y22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T22" s="13">
+      <c r="Z22" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V22" s="18" t="s">
+      <c r="AB22" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W22" s="13"/>
-      <c r="Z22" s="13">
+      <c r="AC22" s="13"/>
+      <c r="AF22" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA22" s="12" t="s">
+      <c r="AG22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB22" s="12" t="s">
+      <c r="AH22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD22" s="13"/>
-      <c r="AI22" s="13"/>
-    </row>
-    <row r="23" spans="1:35">
+      <c r="AJ22" s="13"/>
+      <c r="AO22" s="13"/>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -12010,32 +12061,32 @@
       <c r="H23" s="12" t="s">
         <v>3295</v>
       </c>
-      <c r="M23" s="12">
+      <c r="P23" s="12">
         <v>1</v>
       </c>
-      <c r="S23" s="12" t="s">
+      <c r="Y23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T23" s="13">
+      <c r="Z23" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V23" s="18" t="s">
+      <c r="AB23" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W23" s="13"/>
-      <c r="Z23" s="13">
+      <c r="AC23" s="13"/>
+      <c r="AF23" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA23" s="12" t="s">
+      <c r="AG23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB23" s="12" t="s">
+      <c r="AH23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD23" s="13"/>
-      <c r="AI23" s="13"/>
-    </row>
-    <row r="24" spans="1:35">
+      <c r="AJ23" s="13"/>
+      <c r="AO23" s="13"/>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -12060,32 +12111,32 @@
       <c r="H24" s="12" t="s">
         <v>3297</v>
       </c>
-      <c r="M24" s="12">
+      <c r="P24" s="12">
         <v>4</v>
       </c>
-      <c r="S24" s="12" t="s">
+      <c r="Y24" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T24" s="13">
+      <c r="Z24" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V24" s="18" t="s">
+      <c r="AB24" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W24" s="13"/>
-      <c r="Z24" s="13">
+      <c r="AC24" s="13"/>
+      <c r="AF24" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA24" s="12" t="s">
+      <c r="AG24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB24" s="12" t="s">
+      <c r="AH24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD24" s="13"/>
-      <c r="AI24" s="13"/>
-    </row>
-    <row r="25" spans="1:35">
+      <c r="AJ24" s="13"/>
+      <c r="AO24" s="13"/>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -12113,32 +12164,32 @@
       <c r="I25" s="12">
         <v>2</v>
       </c>
-      <c r="M25" s="12">
+      <c r="P25" s="12">
         <v>6</v>
       </c>
-      <c r="S25" s="12" t="s">
+      <c r="Y25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T25" s="13">
+      <c r="Z25" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V25" s="18" t="s">
+      <c r="AB25" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W25" s="13"/>
-      <c r="Z25" s="13">
+      <c r="AC25" s="13"/>
+      <c r="AF25" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA25" s="12" t="s">
+      <c r="AG25" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB25" s="12" t="s">
+      <c r="AH25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD25" s="13"/>
-      <c r="AI25" s="13"/>
-    </row>
-    <row r="26" spans="1:35">
+      <c r="AJ25" s="13"/>
+      <c r="AO25" s="13"/>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -12163,32 +12214,32 @@
       <c r="H26" s="12" t="s">
         <v>3299</v>
       </c>
-      <c r="M26" s="12">
+      <c r="P26" s="12">
         <v>1</v>
       </c>
-      <c r="S26" s="12" t="s">
+      <c r="Y26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T26" s="13">
+      <c r="Z26" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V26" s="18" t="s">
+      <c r="AB26" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W26" s="13"/>
-      <c r="Z26" s="13">
+      <c r="AC26" s="13"/>
+      <c r="AF26" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA26" s="12" t="s">
+      <c r="AG26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB26" s="12" t="s">
+      <c r="AH26" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD26" s="13"/>
-      <c r="AI26" s="13"/>
-    </row>
-    <row r="27" spans="1:35">
+      <c r="AJ26" s="13"/>
+      <c r="AO26" s="13"/>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -12213,32 +12264,32 @@
       <c r="H27" s="12" t="s">
         <v>3300</v>
       </c>
-      <c r="M27" s="12">
+      <c r="P27" s="12">
         <v>1</v>
       </c>
-      <c r="S27" s="12" t="s">
+      <c r="Y27" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T27" s="13">
+      <c r="Z27" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V27" s="18" t="s">
+      <c r="AB27" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W27" s="13"/>
-      <c r="Z27" s="13">
+      <c r="AC27" s="13"/>
+      <c r="AF27" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA27" s="12" t="s">
+      <c r="AG27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB27" s="12" t="s">
+      <c r="AH27" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD27" s="13"/>
-      <c r="AI27" s="13"/>
-    </row>
-    <row r="28" spans="1:35">
+      <c r="AJ27" s="13"/>
+      <c r="AO27" s="13"/>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -12263,32 +12314,32 @@
       <c r="I28" s="12">
         <v>2</v>
       </c>
-      <c r="M28" s="12">
+      <c r="P28" s="12">
         <v>13</v>
       </c>
-      <c r="S28" s="12" t="s">
+      <c r="Y28" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T28" s="13">
+      <c r="Z28" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V28" s="18" t="s">
+      <c r="AB28" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W28" s="13"/>
-      <c r="Z28" s="13">
+      <c r="AC28" s="13"/>
+      <c r="AF28" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA28" s="12" t="s">
+      <c r="AG28" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB28" s="12" t="s">
+      <c r="AH28" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD28" s="13"/>
-      <c r="AI28" s="13"/>
-    </row>
-    <row r="29" spans="1:35">
+      <c r="AJ28" s="13"/>
+      <c r="AO28" s="13"/>
+    </row>
+    <row r="29" spans="1:41">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -12310,62 +12361,62 @@
       <c r="I29" s="12">
         <v>2</v>
       </c>
-      <c r="M29" s="12">
+      <c r="P29" s="12">
         <v>552</v>
       </c>
-      <c r="O29" s="12">
-        <f>SUM(O2:O22)</f>
+      <c r="R29" s="12">
+        <f>SUM(R2:R22)</f>
         <v>536</v>
       </c>
-      <c r="P29" s="12">
+      <c r="S29" s="12">
         <v>3</v>
       </c>
-      <c r="S29" s="12" t="s">
+      <c r="Y29" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T29" s="13">
+      <c r="Z29" s="13">
         <v>43922.393055555556</v>
       </c>
-      <c r="V29" s="18" t="s">
+      <c r="AB29" s="18" t="s">
         <v>3301</v>
       </c>
-      <c r="W29" s="13"/>
-      <c r="Z29" s="13">
+      <c r="AC29" s="13"/>
+      <c r="AF29" s="13">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA29" s="12" t="s">
+      <c r="AG29" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB29" s="12" t="s">
+      <c r="AH29" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD29" s="13"/>
-      <c r="AI29" s="13"/>
-    </row>
-    <row r="30" spans="1:35">
+      <c r="AJ29" s="13"/>
+      <c r="AO29" s="13"/>
+    </row>
+    <row r="30" spans="1:41">
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
-      <c r="Z30" s="13"/>
-    </row>
-    <row r="31" spans="1:35">
-      <c r="Z31" s="13"/>
+      <c r="AF30" s="13"/>
+    </row>
+    <row r="31" spans="1:41">
+      <c r="AF31" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J20 L30:R1048576 J30:J1048576 K16:K1048576 I21:I1048576 M2:P29 R2:R29">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J20 L30:X1048576 J30:J1048576 K16:K1048576 I21:I1048576 P2:V29 X2:X29">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AQ1048576 AK2:AK1048576 AG2:AG1048576">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS1048576 AM2:AM1048576">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H22 H28:H1048576">
